--- a/data/Installation_Maintenance_Data.xlsx
+++ b/data/Installation_Maintenance_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MBA\Internship\Telecom_Provider_Company_GenAI_Chatbot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA322C5-F9AC-47D7-9AE9-3D85221E95AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2224D4-05FF-4C49-8000-C07A82AD3A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="855" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
